--- a/YCSB Benchmark results Couchbase.xlsx
+++ b/YCSB Benchmark results Couchbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abdalrhman\ABO0OD\BDMA\Courses\1st Semester\H415-Advanced Databases\project\coupons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E55DCA-58E0-409D-A4D4-B02CB1F07024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE32EC1-289F-4A74-B9AB-B801CAB06390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B5B588FF-BDC8-47E8-AE8B-5B27ABEB3D59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5B588FF-BDC8-47E8-AE8B-5B27ABEB3D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4D979A-C195-4F81-AC2E-74187B99C3ED}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,13 +559,13 @@
         <v>921881</v>
       </c>
       <c r="C2">
-        <v>3786572</v>
+        <v>3800428</v>
       </c>
       <c r="D2">
-        <v>7253760</v>
+        <v>7260767</v>
       </c>
       <c r="E2">
-        <v>14214277</v>
+        <v>14564654</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -576,13 +576,13 @@
         <v>271.18467567939899</v>
       </c>
       <c r="C3">
-        <v>264.091109319986</v>
+        <v>263.12825818565699</v>
       </c>
       <c r="D3">
-        <v>275.719075348508</v>
+        <v>275.45299277610701</v>
       </c>
       <c r="E3">
-        <v>281.40720769688102</v>
+        <v>274.63748881367098</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
         <v>122</v>
       </c>
       <c r="D4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4">
         <v>481</v>
@@ -610,13 +610,13 @@
         <v>316</v>
       </c>
       <c r="C5">
-        <v>628</v>
+        <v>528</v>
       </c>
       <c r="D5">
-        <v>882</v>
+        <v>825</v>
       </c>
       <c r="E5">
-        <v>1483</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -627,13 +627,13 @@
         <v>3.4277743005876E-2</v>
       </c>
       <c r="C6">
-        <v>1.6584921665295099E-2</v>
+        <v>1.38931720322026E-2</v>
       </c>
       <c r="D6">
-        <v>1.21592112228692E-2</v>
+        <v>1.13624359520144E-2</v>
       </c>
       <c r="E6">
-        <v>1.04331722253618E-2</v>
+        <v>9.35140649410552E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>122</v>
       </c>
       <c r="D10">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10">
         <v>481</v>
@@ -712,13 +712,13 @@
         <v>316</v>
       </c>
       <c r="C11">
-        <v>628</v>
+        <v>528</v>
       </c>
       <c r="D11">
-        <v>882</v>
+        <v>825</v>
       </c>
       <c r="E11">
-        <v>1483</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -729,13 +729,13 @@
         <v>3.4277743005876E-2</v>
       </c>
       <c r="C12">
-        <v>1.6584921665295099E-2</v>
+        <v>1.38931720322026E-2</v>
       </c>
       <c r="D12">
-        <v>1.21592112228692E-2</v>
+        <v>1.13624359520144E-2</v>
       </c>
       <c r="E12">
-        <v>1.04331722253618E-2</v>
+        <v>9.35140649410552E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>6.875</v>
       </c>
       <c r="C14">
-        <v>4.625</v>
+        <v>4.84375</v>
       </c>
       <c r="D14">
         <v>4.8125</v>
       </c>
       <c r="E14">
-        <v>4.625</v>
+        <v>4.78125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -797,13 +797,13 @@
         <v>63</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -831,13 +831,13 @@
         <v>63</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,13 +865,13 @@
         <v>117608.656384</v>
       </c>
       <c r="C20">
-        <v>120866.700096</v>
+        <v>121206.279136</v>
       </c>
       <c r="D20">
-        <v>115982.161328</v>
+        <v>116080.645152</v>
       </c>
       <c r="E20">
-        <v>113671.824704</v>
+        <v>116417.049208</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -882,13 +882,13 @@
         <v>107008</v>
       </c>
       <c r="C21">
-        <v>106560</v>
+        <v>106624</v>
       </c>
       <c r="D21">
-        <v>106560</v>
+        <v>106752</v>
       </c>
       <c r="E21">
-        <v>106112</v>
+        <v>106496</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -899,13 +899,13 @@
         <v>1848319</v>
       </c>
       <c r="C22">
-        <v>1887231</v>
+        <v>1928191</v>
       </c>
       <c r="D22">
-        <v>1828863</v>
+        <v>1807359</v>
       </c>
       <c r="E22">
-        <v>1847295</v>
+        <v>3119103</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -916,13 +916,13 @@
         <v>133247</v>
       </c>
       <c r="C23">
-        <v>146047</v>
+        <v>199935</v>
       </c>
       <c r="D23">
-        <v>127807</v>
+        <v>128895</v>
       </c>
       <c r="E23">
-        <v>118911</v>
+        <v>133759</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,13 +933,13 @@
         <v>170751</v>
       </c>
       <c r="C24">
-        <v>208383</v>
+        <v>217471</v>
       </c>
       <c r="D24">
-        <v>171263</v>
+        <v>197759</v>
       </c>
       <c r="E24">
-        <v>134015</v>
+        <v>206463</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9C267C-9E42-4799-AE84-6A2C950015E3}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,13 +1004,13 @@
         <v>150698</v>
       </c>
       <c r="C2">
-        <v>180186</v>
+        <v>587434</v>
       </c>
       <c r="D2">
-        <v>180219</v>
+        <v>1386242</v>
       </c>
       <c r="E2">
-        <v>180219</v>
+        <v>2411276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1021,13 +1021,13 @@
         <v>1658.9470331391201</v>
       </c>
       <c r="C3">
-        <v>1718.63518808342</v>
+        <v>1702.3188988039501</v>
       </c>
       <c r="D3">
-        <v>1637.56873581586</v>
+        <v>1442.74953435258</v>
       </c>
       <c r="E3">
-        <v>1707.16739078565</v>
+        <v>1658.8727296253101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,13 +1038,13 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,13 +1055,13 @@
         <v>110</v>
       </c>
       <c r="C5">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>627</v>
       </c>
       <c r="E5">
-        <v>154</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,13 +1072,13 @@
         <v>7.2993669458121496E-2</v>
       </c>
       <c r="C6">
-        <v>8.0472400741455993E-2</v>
+        <v>5.2431422083161601E-2</v>
       </c>
       <c r="D6">
-        <v>8.5451589455051893E-2</v>
+        <v>4.5230197901953602E-2</v>
       </c>
       <c r="E6">
-        <v>8.5451589455051893E-2</v>
+        <v>4.8853801887465298E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1140,13 +1140,13 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1157,13 +1157,13 @@
         <v>110</v>
       </c>
       <c r="C11">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="D11">
-        <v>154</v>
+        <v>627</v>
       </c>
       <c r="E11">
-        <v>154</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1174,13 +1174,13 @@
         <v>7.2993669458121496E-2</v>
       </c>
       <c r="C12">
-        <v>8.0472400741455993E-2</v>
+        <v>5.2431422083161601E-2</v>
       </c>
       <c r="D12">
-        <v>8.5451589455051893E-2</v>
+        <v>4.5230197901953602E-2</v>
       </c>
       <c r="E12">
-        <v>8.5451589455051893E-2</v>
+        <v>4.8853801887465298E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1191,13 +1191,13 @@
         <v>125106</v>
       </c>
       <c r="C13">
-        <v>154912</v>
+        <v>499733</v>
       </c>
       <c r="D13">
-        <v>147555</v>
+        <v>999347</v>
       </c>
       <c r="E13">
-        <v>153839</v>
+        <v>1998411</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1208,13 +1208,13 @@
         <v>152987.96936997399</v>
       </c>
       <c r="C14">
-        <v>148404.68952695699</v>
+        <v>149902.21975334801</v>
       </c>
       <c r="D14">
-        <v>155857.078594422</v>
+        <v>177008.35615256699</v>
       </c>
       <c r="E14">
-        <v>149625.21742860999</v>
+        <v>154239.10930834501</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,13 +1225,13 @@
         <v>106816</v>
       </c>
       <c r="C15">
-        <v>107072</v>
+        <v>106432</v>
       </c>
       <c r="D15">
-        <v>107520</v>
+        <v>107008</v>
       </c>
       <c r="E15">
-        <v>106368</v>
+        <v>109056</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1242,13 +1242,13 @@
         <v>2631679</v>
       </c>
       <c r="C16">
-        <v>2044927</v>
+        <v>2410495</v>
       </c>
       <c r="D16">
-        <v>2365439</v>
+        <v>17956863</v>
       </c>
       <c r="E16">
-        <v>2387967</v>
+        <v>2060287</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1259,13 +1259,13 @@
         <v>192255</v>
       </c>
       <c r="C17">
-        <v>174719</v>
+        <v>180095</v>
       </c>
       <c r="D17">
-        <v>180223</v>
+        <v>316927</v>
       </c>
       <c r="E17">
-        <v>167423</v>
+        <v>170751</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
         <v>287743</v>
       </c>
       <c r="C18">
-        <v>254975</v>
+        <v>256639</v>
       </c>
       <c r="D18">
-        <v>213759</v>
+        <v>578047</v>
       </c>
       <c r="E18">
-        <v>173567</v>
+        <v>194047</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1293,13 +1293,13 @@
         <v>125106</v>
       </c>
       <c r="C19">
-        <v>154912</v>
+        <v>499733</v>
       </c>
       <c r="D19">
-        <v>147555</v>
+        <v>999347</v>
       </c>
       <c r="E19">
-        <v>153839</v>
+        <v>1998411</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1327,13 +1327,13 @@
         <v>3.28515625</v>
       </c>
       <c r="C21">
-        <v>0.87109375</v>
+        <v>4.12109375</v>
       </c>
       <c r="D21">
-        <v>1.0078125</v>
+        <v>4.5546875</v>
       </c>
       <c r="E21">
-        <v>1.11328125</v>
+        <v>4.0546875</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1361,13 +1361,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1378,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1395,13 +1395,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1412,13 +1412,13 @@
         <v>124894</v>
       </c>
       <c r="C26">
-        <v>154762</v>
+        <v>500267</v>
       </c>
       <c r="D26">
-        <v>147566</v>
+        <v>1000653</v>
       </c>
       <c r="E26">
-        <v>153825</v>
+        <v>2001589</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1429,13 +1429,13 @@
         <v>152174.98102390801</v>
       </c>
       <c r="C27">
-        <v>148118.70200695199</v>
+        <v>149810.08039307001</v>
       </c>
       <c r="D27">
-        <v>155371.84446281599</v>
+        <v>176282.699429272</v>
       </c>
       <c r="E27">
-        <v>149001.098339021</v>
+        <v>154181.05275358699</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,13 +1446,13 @@
         <v>106560</v>
       </c>
       <c r="C28">
-        <v>107200</v>
+        <v>106496</v>
       </c>
       <c r="D28">
-        <v>107328</v>
+        <v>106944</v>
       </c>
       <c r="E28">
-        <v>106176</v>
+        <v>108992</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>2631679</v>
       </c>
       <c r="C29">
-        <v>2041855</v>
+        <v>2408447</v>
       </c>
       <c r="D29">
-        <v>2363391</v>
+        <v>17924095</v>
       </c>
       <c r="E29">
-        <v>2390015</v>
+        <v>2064383</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1480,13 +1480,13 @@
         <v>191743</v>
       </c>
       <c r="C30">
-        <v>174591</v>
+        <v>179967</v>
       </c>
       <c r="D30">
-        <v>180095</v>
+        <v>316671</v>
       </c>
       <c r="E30">
-        <v>166911</v>
+        <v>170495</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1497,13 +1497,13 @@
         <v>282623</v>
       </c>
       <c r="C31">
-        <v>254847</v>
+        <v>255743</v>
       </c>
       <c r="D31">
-        <v>215551</v>
+        <v>572927</v>
       </c>
       <c r="E31">
-        <v>173183</v>
+        <v>193919</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,13 +1514,13 @@
         <v>124894</v>
       </c>
       <c r="C32">
-        <v>154762</v>
+        <v>500267</v>
       </c>
       <c r="D32">
-        <v>147566</v>
+        <v>1000653</v>
       </c>
       <c r="E32">
-        <v>153825</v>
+        <v>2001589</v>
       </c>
     </row>
   </sheetData>
